--- a/biology/Médecine/Audiogramme/Audiogramme.xlsx
+++ b/biology/Médecine/Audiogramme/Audiogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme audiogramme désigne un graphique, utilisé en audiométrie tonale, qui permet de visualiser la capacité auditive d'un sujet.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe de fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'audiogramme tonal se base généralement sur des sons purs à fréquences choisies arbitrairement et conventionnellement (à 125 Hz, 250 Hz, 500 Hz, 750 Hz, 1 000 Hz, 1 500 Hz, 2 000 Hz, 3 000 Hz, 4 000 Hz, 6 000 Hz, 8 000 Hz, 15 000 Hz). On mesure le seuil de l'audition pour ces différentes fréquences. On le fait en adressant le son tour à tour à chaque oreille au moyen d'un casque ou de haut-parleurs (audiogramme en voie aérienne) puis par un vibreur appliqué sur le crâne de chaque côté (audiogramme en voie osseuse).
 On compare ensuite ces résultats au seuil normal pour les mêmes fréquences, de façon à déterminer le déficit auditif et à étudier l'audiogramme qui représente graphiquement ce déficit en fonction de la fréquence.
